--- a/biology/Zoologie/Celestus_stenurus/Celestus_stenurus.xlsx
+++ b/biology/Zoologie/Celestus_stenurus/Celestus_stenurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celestus stenurus est une espèce de sauriens de la famille des Diploglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celestus stenurus est une espèce de sauriens de la famille des Diploglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 mai 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 mai 2012) :
 Celestus stenurus stenurus (Cope, 1862)
 Celestus stenurus alloeides (Schwartz, 1964)
 Celestus stenurus rugosus Cope, 1879
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1863 "1862" : Contributions to Neotropical saurology. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 176-188 (texte intégral).
 Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).
